--- a/Code/Results/Cases/Case_3_139/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_139/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9975386461603789</v>
+        <v>1.027602551808685</v>
       </c>
       <c r="D2">
-        <v>1.021410549309802</v>
+        <v>1.037116872136336</v>
       </c>
       <c r="E2">
-        <v>1.004327972741807</v>
+        <v>1.027676401288683</v>
       </c>
       <c r="F2">
-        <v>1.028086606730656</v>
+        <v>1.04803363297722</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048585669251941</v>
+        <v>1.035668660751597</v>
       </c>
       <c r="J2">
-        <v>1.01979322595604</v>
+        <v>1.032759511240333</v>
       </c>
       <c r="K2">
-        <v>1.032579446939717</v>
+        <v>1.03990867375309</v>
       </c>
       <c r="L2">
-        <v>1.015727339543475</v>
+        <v>1.030495435620602</v>
       </c>
       <c r="M2">
-        <v>1.039168041228295</v>
+        <v>1.050794606922874</v>
       </c>
       <c r="N2">
-        <v>1.021241449308812</v>
+        <v>1.034226148205466</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002037695155272</v>
+        <v>1.028551203023395</v>
       </c>
       <c r="D3">
-        <v>1.024791078478648</v>
+        <v>1.037839589069555</v>
       </c>
       <c r="E3">
-        <v>1.007911957446936</v>
+        <v>1.028481520816063</v>
       </c>
       <c r="F3">
-        <v>1.03210961437159</v>
+        <v>1.048916043028126</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049901019057857</v>
+        <v>1.035859814532265</v>
       </c>
       <c r="J3">
-        <v>1.022472964264795</v>
+        <v>1.03334842150747</v>
       </c>
       <c r="K3">
-        <v>1.035116282716575</v>
+        <v>1.040441362746457</v>
       </c>
       <c r="L3">
-        <v>1.018444594421322</v>
+        <v>1.031108337623683</v>
       </c>
       <c r="M3">
-        <v>1.042347491807381</v>
+        <v>1.051488798537796</v>
       </c>
       <c r="N3">
-        <v>1.023924993153339</v>
+        <v>1.034815894792731</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004889280707889</v>
+        <v>1.029165399684953</v>
       </c>
       <c r="D4">
-        <v>1.02693442405635</v>
+        <v>1.038307195305653</v>
       </c>
       <c r="E4">
-        <v>1.01018972771645</v>
+        <v>1.029003185681467</v>
       </c>
       <c r="F4">
-        <v>1.034661922042467</v>
+        <v>1.049487262765823</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050720752209444</v>
+        <v>1.03598183107993</v>
       </c>
       <c r="J4">
-        <v>1.024168739722372</v>
+        <v>1.033729242753045</v>
       </c>
       <c r="K4">
-        <v>1.03671828916452</v>
+        <v>1.040785339311255</v>
       </c>
       <c r="L4">
-        <v>1.020166707844889</v>
+        <v>1.031504974339838</v>
       </c>
       <c r="M4">
-        <v>1.04435926014152</v>
+        <v>1.051937591323802</v>
       </c>
       <c r="N4">
-        <v>1.025623176806574</v>
+        <v>1.035197256848155</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006074320672862</v>
+        <v>1.029423692226647</v>
       </c>
       <c r="D5">
-        <v>1.027825247384012</v>
+        <v>1.038503765963702</v>
       </c>
       <c r="E5">
-        <v>1.011137741691377</v>
+        <v>1.02922265951806</v>
       </c>
       <c r="F5">
-        <v>1.035723121517857</v>
+        <v>1.049727459834295</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051058007527363</v>
+        <v>1.036032725668431</v>
       </c>
       <c r="J5">
-        <v>1.024872774389072</v>
+        <v>1.033889280833156</v>
       </c>
       <c r="K5">
-        <v>1.037382574766437</v>
+        <v>1.040929776257755</v>
       </c>
       <c r="L5">
-        <v>1.020882300492007</v>
+        <v>1.031671730900404</v>
       </c>
       <c r="M5">
-        <v>1.045194415964802</v>
+        <v>1.052126167782445</v>
       </c>
       <c r="N5">
-        <v>1.026328211283254</v>
+        <v>1.035357522200698</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006272500939869</v>
+        <v>1.029467065595119</v>
       </c>
       <c r="D6">
-        <v>1.027974228970434</v>
+        <v>1.03853677035491</v>
       </c>
       <c r="E6">
-        <v>1.011296366028165</v>
+        <v>1.029259519831951</v>
       </c>
       <c r="F6">
-        <v>1.035900620942893</v>
+        <v>1.049767793236004</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051114206867651</v>
+        <v>1.036041247548307</v>
       </c>
       <c r="J6">
-        <v>1.024990472533948</v>
+        <v>1.033916148432676</v>
       </c>
       <c r="K6">
-        <v>1.037493579121524</v>
+        <v>1.040954017808551</v>
       </c>
       <c r="L6">
-        <v>1.021001967514881</v>
+        <v>1.031699730645295</v>
       </c>
       <c r="M6">
-        <v>1.045334030020242</v>
+        <v>1.052157824930029</v>
       </c>
       <c r="N6">
-        <v>1.026446076572997</v>
+        <v>1.035384427955291</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004905168716761</v>
+        <v>1.029168850672603</v>
       </c>
       <c r="D7">
-        <v>1.026946367108132</v>
+        <v>1.038309821937463</v>
       </c>
       <c r="E7">
-        <v>1.01020243226825</v>
+        <v>1.029006117651323</v>
       </c>
       <c r="F7">
-        <v>1.034676147677474</v>
+        <v>1.049490472071527</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050725287355219</v>
+        <v>1.03598251271313</v>
       </c>
       <c r="J7">
-        <v>1.024178181564355</v>
+        <v>1.033731381423441</v>
       </c>
       <c r="K7">
-        <v>1.036727201190388</v>
+        <v>1.040787269957333</v>
       </c>
       <c r="L7">
-        <v>1.020176302227944</v>
+        <v>1.031507202509272</v>
       </c>
       <c r="M7">
-        <v>1.044370460748244</v>
+        <v>1.051940111470665</v>
       </c>
       <c r="N7">
-        <v>1.025632632057056</v>
+        <v>1.035199398555708</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9990717716366885</v>
+        <v>1.027923078675807</v>
       </c>
       <c r="D8">
-        <v>1.022562336801755</v>
+        <v>1.037361125114477</v>
       </c>
       <c r="E8">
-        <v>1.005547952957339</v>
+        <v>1.027948349727456</v>
       </c>
       <c r="F8">
-        <v>1.029456965365186</v>
+        <v>1.048331796690489</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049036791529879</v>
+        <v>1.035733607988922</v>
       </c>
       <c r="J8">
-        <v>1.020706934131062</v>
+        <v>1.032958585965439</v>
       </c>
       <c r="K8">
-        <v>1.033445119535755</v>
+        <v>1.040088844598032</v>
       </c>
       <c r="L8">
-        <v>1.016653294491642</v>
+        <v>1.030702558131276</v>
       </c>
       <c r="M8">
-        <v>1.040252175950838</v>
+        <v>1.051029293350873</v>
       </c>
       <c r="N8">
-        <v>1.02215645505425</v>
+        <v>1.034425505639516</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9883122301733335</v>
+        <v>1.025730636079627</v>
       </c>
       <c r="D9">
-        <v>1.014484565290947</v>
+        <v>1.03568915746836</v>
       </c>
       <c r="E9">
-        <v>0.997014214768194</v>
+        <v>1.026089837731969</v>
       </c>
       <c r="F9">
-        <v>1.019852522918506</v>
+        <v>1.046291977983634</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045813747431623</v>
+        <v>1.035282226221023</v>
       </c>
       <c r="J9">
-        <v>1.014284573706951</v>
+        <v>1.031595002958767</v>
       </c>
       <c r="K9">
-        <v>1.027346931773258</v>
+        <v>1.038852749587892</v>
       </c>
       <c r="L9">
-        <v>1.010155920717168</v>
+        <v>1.029285086295785</v>
       </c>
       <c r="M9">
-        <v>1.03263151369366</v>
+        <v>1.049421343521029</v>
       </c>
       <c r="N9">
-        <v>1.015724974141681</v>
+        <v>1.033059986188569</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9807806516416588</v>
+        <v>1.024270921737622</v>
       </c>
       <c r="D10">
-        <v>1.008840176798236</v>
+        <v>1.03457443359874</v>
       </c>
       <c r="E10">
-        <v>0.9910787366515793</v>
+        <v>1.024854546031448</v>
       </c>
       <c r="F10">
-        <v>1.013148583974555</v>
+        <v>1.044933474759635</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043487592931286</v>
+        <v>1.034972754085468</v>
       </c>
       <c r="J10">
-        <v>1.009778117968483</v>
+        <v>1.030684781854986</v>
       </c>
       <c r="K10">
-        <v>1.023051632691704</v>
+        <v>1.038025133298</v>
       </c>
       <c r="L10">
-        <v>1.005610957382384</v>
+        <v>1.028340444417391</v>
       </c>
       <c r="M10">
-        <v>1.027284426667276</v>
+        <v>1.048347455813991</v>
       </c>
       <c r="N10">
-        <v>1.011212118719167</v>
+        <v>1.032148472466417</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9774257176799205</v>
+        <v>1.023639314108983</v>
       </c>
       <c r="D11">
-        <v>1.006329260211533</v>
+        <v>1.034091744653854</v>
       </c>
       <c r="E11">
-        <v>0.9884446025908503</v>
+        <v>1.024320548882736</v>
       </c>
       <c r="F11">
-        <v>1.010167812523684</v>
+        <v>1.044345572414097</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042435601611142</v>
+        <v>1.034836729579663</v>
       </c>
       <c r="J11">
-        <v>1.007768730681803</v>
+        <v>1.030290381273719</v>
       </c>
       <c r="K11">
-        <v>1.021132794945189</v>
+        <v>1.037665936875202</v>
       </c>
       <c r="L11">
-        <v>1.003587777222124</v>
+        <v>1.027931497082066</v>
       </c>
       <c r="M11">
-        <v>1.024900492852319</v>
+        <v>1.047882010788797</v>
       </c>
       <c r="N11">
-        <v>1.00919987787206</v>
+        <v>1.031753511791086</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.976164670894166</v>
+        <v>1.023404776576478</v>
       </c>
       <c r="D12">
-        <v>1.005386057610475</v>
+        <v>1.033912452937113</v>
       </c>
       <c r="E12">
-        <v>0.9874560352242862</v>
+        <v>1.024122333916378</v>
       </c>
       <c r="F12">
-        <v>1.009048317381088</v>
+        <v>1.044127251588689</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042037877590418</v>
+        <v>1.034785901027688</v>
       </c>
       <c r="J12">
-        <v>1.007013198796725</v>
+        <v>1.030143843851116</v>
       </c>
       <c r="K12">
-        <v>1.020410791654666</v>
+        <v>1.03753239119247</v>
       </c>
       <c r="L12">
-        <v>1.002827569392017</v>
+        <v>1.027779610157541</v>
       </c>
       <c r="M12">
-        <v>1.024004195048424</v>
+        <v>1.047709058226258</v>
       </c>
       <c r="N12">
-        <v>1.008443273045045</v>
+        <v>1.031606766268535</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9764358562418299</v>
+        <v>1.023455082507987</v>
       </c>
       <c r="D13">
-        <v>1.00558886282395</v>
+        <v>1.03395091157665</v>
       </c>
       <c r="E13">
-        <v>0.9876685534184271</v>
+        <v>1.024164845553898</v>
       </c>
       <c r="F13">
-        <v>1.00928901970011</v>
+        <v>1.044174079758151</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042123510151466</v>
+        <v>1.034796817625453</v>
       </c>
       <c r="J13">
-        <v>1.007175684559749</v>
+        <v>1.030175278398034</v>
       </c>
       <c r="K13">
-        <v>1.020566089737552</v>
+        <v>1.037561042795806</v>
       </c>
       <c r="L13">
-        <v>1.002991037671358</v>
+        <v>1.027812189754559</v>
       </c>
       <c r="M13">
-        <v>1.024196950881094</v>
+        <v>1.047746160084809</v>
       </c>
       <c r="N13">
-        <v>1.00860598955649</v>
+        <v>1.031638245456115</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9773217874077499</v>
+        <v>1.023619925737604</v>
       </c>
       <c r="D14">
-        <v>1.006251512689341</v>
+        <v>1.034076924327531</v>
       </c>
       <c r="E14">
-        <v>0.9883630970940764</v>
+        <v>1.024304161603207</v>
       </c>
       <c r="F14">
-        <v>1.010075529297261</v>
+        <v>1.044327524871803</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042402869229073</v>
+        <v>1.034832534252978</v>
       </c>
       <c r="J14">
-        <v>1.007706467568813</v>
+        <v>1.030278269244937</v>
       </c>
       <c r="K14">
-        <v>1.021073305304953</v>
+        <v>1.03765490047386</v>
       </c>
       <c r="L14">
-        <v>1.003525118380132</v>
+        <v>1.027918941763645</v>
       </c>
       <c r="M14">
-        <v>1.024826627841513</v>
+        <v>1.047867715806228</v>
       </c>
       <c r="N14">
-        <v>1.009137526338308</v>
+        <v>1.031741382561834</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9778656429939008</v>
+        <v>1.023721500347082</v>
       </c>
       <c r="D15">
-        <v>1.006658381703675</v>
+        <v>1.034154565042806</v>
       </c>
       <c r="E15">
-        <v>0.9887896697795487</v>
+        <v>1.024390016793088</v>
       </c>
       <c r="F15">
-        <v>1.010558474889904</v>
+        <v>1.04442207444106</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04257406070825</v>
+        <v>1.03485450031553</v>
       </c>
       <c r="J15">
-        <v>1.008032273788595</v>
+        <v>1.030341720099557</v>
       </c>
       <c r="K15">
-        <v>1.02138457770796</v>
+        <v>1.037712712868161</v>
       </c>
       <c r="L15">
-        <v>1.003853016153552</v>
+        <v>1.027984717127024</v>
       </c>
       <c r="M15">
-        <v>1.025213146428875</v>
+        <v>1.047942601648049</v>
       </c>
       <c r="N15">
-        <v>1.009463795240292</v>
+        <v>1.031804923523946</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9810012665250252</v>
+        <v>1.024312849180745</v>
       </c>
       <c r="D16">
-        <v>1.009005368209981</v>
+        <v>1.034606468062034</v>
       </c>
       <c r="E16">
-        <v>0.9912521633945658</v>
+        <v>1.024890004573768</v>
       </c>
       <c r="F16">
-        <v>1.013344716186386</v>
+        <v>1.044972499155869</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04355644681075</v>
+        <v>1.034981739058093</v>
       </c>
       <c r="J16">
-        <v>1.009910214817934</v>
+        <v>1.030710951335734</v>
       </c>
       <c r="K16">
-        <v>1.023177703732023</v>
+        <v>1.038048954516712</v>
       </c>
       <c r="L16">
-        <v>1.005744031529394</v>
+        <v>1.028367586860331</v>
       </c>
       <c r="M16">
-        <v>1.027441153834749</v>
+        <v>1.048378336606439</v>
       </c>
       <c r="N16">
-        <v>1.011344403161296</v>
+        <v>1.032174679110829</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9829425269261798</v>
+        <v>1.024683909953545</v>
       </c>
       <c r="D17">
-        <v>1.010459333990752</v>
+        <v>1.034889934210781</v>
       </c>
       <c r="E17">
-        <v>0.9927793260834923</v>
+        <v>1.025203873508281</v>
       </c>
       <c r="F17">
-        <v>1.015071180851855</v>
+        <v>1.045317857674197</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044160523330593</v>
+        <v>1.035061011927406</v>
       </c>
       <c r="J17">
-        <v>1.011072356454725</v>
+        <v>1.030942488998566</v>
       </c>
       <c r="K17">
-        <v>1.024286425291964</v>
+        <v>1.038259647698994</v>
       </c>
       <c r="L17">
-        <v>1.006915155556467</v>
+        <v>1.028607775402801</v>
       </c>
       <c r="M17">
-        <v>1.028820019051287</v>
+        <v>1.048651543484672</v>
       </c>
       <c r="N17">
-        <v>1.01250819517251</v>
+        <v>1.0324065455837</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9840658462229288</v>
+        <v>1.024900387590967</v>
       </c>
       <c r="D18">
-        <v>1.011300991602906</v>
+        <v>1.03505527453395</v>
       </c>
       <c r="E18">
-        <v>0.99366395239219</v>
+        <v>1.025387033956001</v>
       </c>
       <c r="F18">
-        <v>1.016070722569834</v>
+        <v>1.045519332021486</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044508570490165</v>
+        <v>1.035107055407941</v>
       </c>
       <c r="J18">
-        <v>1.011744642623651</v>
+        <v>1.031077515000649</v>
       </c>
       <c r="K18">
-        <v>1.02492746533021</v>
+        <v>1.038382461016081</v>
       </c>
       <c r="L18">
-        <v>1.007592957948367</v>
+        <v>1.028747881821447</v>
       </c>
       <c r="M18">
-        <v>1.029617702814206</v>
+        <v>1.048810857458184</v>
       </c>
       <c r="N18">
-        <v>1.013181436064909</v>
+        <v>1.032541763338194</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9844473683049232</v>
+        <v>1.024974208337931</v>
       </c>
       <c r="D19">
-        <v>1.01158690121759</v>
+        <v>1.03511165115323</v>
       </c>
       <c r="E19">
-        <v>0.9939645603391682</v>
+        <v>1.025449501484576</v>
       </c>
       <c r="F19">
-        <v>1.016410289898811</v>
+        <v>1.045588035047814</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044626523287856</v>
+        <v>1.035122721942675</v>
       </c>
       <c r="J19">
-        <v>1.011972942486137</v>
+        <v>1.031123550940514</v>
       </c>
       <c r="K19">
-        <v>1.025145095507503</v>
+        <v>1.038424323506161</v>
       </c>
       <c r="L19">
-        <v>1.007823185256241</v>
+        <v>1.028795655902417</v>
       </c>
       <c r="M19">
-        <v>1.029888589797677</v>
+        <v>1.048865172078984</v>
       </c>
       <c r="N19">
-        <v>1.013410060139386</v>
+        <v>1.032587864654374</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9827351829950948</v>
+        <v>1.024644094070074</v>
       </c>
       <c r="D20">
-        <v>1.010304004310033</v>
+        <v>1.034859521036664</v>
       </c>
       <c r="E20">
-        <v>0.9926161148541458</v>
+        <v>1.025170189436416</v>
       </c>
       <c r="F20">
-        <v>1.014886724988329</v>
+        <v>1.045280800594777</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044096158164832</v>
+        <v>1.035052526868297</v>
       </c>
       <c r="J20">
-        <v>1.010948248962694</v>
+        <v>1.030917649881264</v>
       </c>
       <c r="K20">
-        <v>1.024168058089356</v>
+        <v>1.038237050628534</v>
       </c>
       <c r="L20">
-        <v>1.006790055592491</v>
+        <v>1.028582004558455</v>
       </c>
       <c r="M20">
-        <v>1.028672764420605</v>
+        <v>1.04862223540852</v>
       </c>
       <c r="N20">
-        <v>1.012383911433606</v>
+        <v>1.032381671192003</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9770613200612496</v>
+        <v>1.023571381585562</v>
       </c>
       <c r="D21">
-        <v>1.006056673791286</v>
+        <v>1.034039816689776</v>
       </c>
       <c r="E21">
-        <v>0.9881588552955035</v>
+        <v>1.02426313275234</v>
       </c>
       <c r="F21">
-        <v>1.00984426647089</v>
+        <v>1.044282337655694</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042320799330919</v>
+        <v>1.034822024955354</v>
       </c>
       <c r="J21">
-        <v>1.007550421579455</v>
+        <v>1.030247942090262</v>
       </c>
       <c r="K21">
-        <v>1.020924202024756</v>
+        <v>1.037627265145602</v>
       </c>
       <c r="L21">
-        <v>1.003368088828829</v>
+        <v>1.027887505554428</v>
       </c>
       <c r="M21">
-        <v>1.024641505876518</v>
+        <v>1.047831922475748</v>
       </c>
       <c r="N21">
-        <v>1.008981258745747</v>
+        <v>1.031711012339121</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9734074386906713</v>
+        <v>1.02289732812061</v>
       </c>
       <c r="D22">
-        <v>1.003324980026934</v>
+        <v>1.033524439307741</v>
       </c>
       <c r="E22">
-        <v>0.9852974949566252</v>
+        <v>1.023693613950015</v>
       </c>
       <c r="F22">
-        <v>1.006602360259399</v>
+        <v>1.043654867567047</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041164114734593</v>
+        <v>1.034675346540566</v>
       </c>
       <c r="J22">
-        <v>1.005360862176151</v>
+        <v>1.02982664221348</v>
       </c>
       <c r="K22">
-        <v>1.018830854935393</v>
+        <v>1.037243151091368</v>
       </c>
       <c r="L22">
-        <v>1.001165948353871</v>
+        <v>1.027450929824206</v>
       </c>
       <c r="M22">
-        <v>1.022044148034293</v>
+        <v>1.047334642687411</v>
       </c>
       <c r="N22">
-        <v>1.006788589916944</v>
+        <v>1.03128911416819</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9753529103930619</v>
+        <v>1.023254618103715</v>
       </c>
       <c r="D23">
-        <v>1.004779079330608</v>
+        <v>1.033797649841467</v>
       </c>
       <c r="E23">
-        <v>0.9868201200486281</v>
+        <v>1.023995451923141</v>
       </c>
       <c r="F23">
-        <v>1.008327944759665</v>
+        <v>1.043987472119828</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041781215028137</v>
+        <v>1.034753269466504</v>
       </c>
       <c r="J23">
-        <v>1.006526785323222</v>
+        <v>1.030050002560685</v>
       </c>
       <c r="K23">
-        <v>1.01994582094615</v>
+        <v>1.037446844908666</v>
       </c>
       <c r="L23">
-        <v>1.002338289686974</v>
+        <v>1.027682358651582</v>
       </c>
       <c r="M23">
-        <v>1.023427176921407</v>
+        <v>1.047598295595509</v>
       </c>
       <c r="N23">
-        <v>1.007956168808617</v>
+        <v>1.031512791712708</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9828289005009155</v>
+        <v>1.024662085017513</v>
       </c>
       <c r="D24">
-        <v>1.010374210898541</v>
+        <v>1.034873263443172</v>
       </c>
       <c r="E24">
-        <v>0.992689881926444</v>
+        <v>1.025185409552949</v>
       </c>
       <c r="F24">
-        <v>1.014970095712797</v>
+        <v>1.045297544993359</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044125255284498</v>
+        <v>1.035056361503967</v>
       </c>
       <c r="J24">
-        <v>1.011004344981973</v>
+        <v>1.030928873689584</v>
       </c>
       <c r="K24">
-        <v>1.024221560590093</v>
+        <v>1.038247261520656</v>
       </c>
       <c r="L24">
-        <v>1.006846599212394</v>
+        <v>1.028593649267523</v>
       </c>
       <c r="M24">
-        <v>1.028739322763676</v>
+        <v>1.04863547859947</v>
       </c>
       <c r="N24">
-        <v>1.012440087115667</v>
+        <v>1.032392910939418</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9911542740041578</v>
+        <v>1.026297101619945</v>
       </c>
       <c r="D25">
-        <v>1.016616839127814</v>
+        <v>1.036121421221948</v>
       </c>
       <c r="E25">
-        <v>0.9992620216123338</v>
+        <v>1.026569658363611</v>
       </c>
       <c r="F25">
-        <v>1.022386471991099</v>
+        <v>1.046819083935006</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046677415099543</v>
+        <v>1.035400429418843</v>
       </c>
       <c r="J25">
-        <v>1.015983043811876</v>
+        <v>1.031947731490103</v>
       </c>
       <c r="K25">
-        <v>1.028962562487237</v>
+        <v>1.03917294071252</v>
       </c>
       <c r="L25">
-        <v>1.011871804557204</v>
+        <v>1.029651481368691</v>
       </c>
       <c r="M25">
-        <v>1.03464692947754</v>
+        <v>1.049837381331749</v>
       </c>
       <c r="N25">
-        <v>1.017425856268972</v>
+        <v>1.033413215634878</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_139/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_139/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027602551808685</v>
+        <v>0.9975386461603778</v>
       </c>
       <c r="D2">
-        <v>1.037116872136336</v>
+        <v>1.021410549309802</v>
       </c>
       <c r="E2">
-        <v>1.027676401288683</v>
+        <v>1.004327972741806</v>
       </c>
       <c r="F2">
-        <v>1.04803363297722</v>
+        <v>1.028086606730655</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035668660751597</v>
+        <v>1.04858566925194</v>
       </c>
       <c r="J2">
-        <v>1.032759511240333</v>
+        <v>1.019793225956039</v>
       </c>
       <c r="K2">
-        <v>1.03990867375309</v>
+        <v>1.032579446939716</v>
       </c>
       <c r="L2">
-        <v>1.030495435620602</v>
+        <v>1.015727339543474</v>
       </c>
       <c r="M2">
-        <v>1.050794606922874</v>
+        <v>1.039168041228294</v>
       </c>
       <c r="N2">
-        <v>1.034226148205466</v>
+        <v>1.021241449308811</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028551203023395</v>
+        <v>1.002037695155272</v>
       </c>
       <c r="D3">
-        <v>1.037839589069555</v>
+        <v>1.024791078478648</v>
       </c>
       <c r="E3">
-        <v>1.028481520816063</v>
+        <v>1.007911957446936</v>
       </c>
       <c r="F3">
-        <v>1.048916043028126</v>
+        <v>1.03210961437159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035859814532265</v>
+        <v>1.049901019057857</v>
       </c>
       <c r="J3">
-        <v>1.03334842150747</v>
+        <v>1.022472964264795</v>
       </c>
       <c r="K3">
-        <v>1.040441362746457</v>
+        <v>1.035116282716575</v>
       </c>
       <c r="L3">
-        <v>1.031108337623683</v>
+        <v>1.018444594421322</v>
       </c>
       <c r="M3">
-        <v>1.051488798537796</v>
+        <v>1.042347491807381</v>
       </c>
       <c r="N3">
-        <v>1.034815894792731</v>
+        <v>1.023924993153339</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029165399684953</v>
+        <v>1.004889280707888</v>
       </c>
       <c r="D4">
-        <v>1.038307195305653</v>
+        <v>1.02693442405635</v>
       </c>
       <c r="E4">
-        <v>1.029003185681467</v>
+        <v>1.010189727716449</v>
       </c>
       <c r="F4">
-        <v>1.049487262765823</v>
+        <v>1.034661922042467</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03598183107993</v>
+        <v>1.050720752209444</v>
       </c>
       <c r="J4">
-        <v>1.033729242753045</v>
+        <v>1.024168739722372</v>
       </c>
       <c r="K4">
-        <v>1.040785339311255</v>
+        <v>1.03671828916452</v>
       </c>
       <c r="L4">
-        <v>1.031504974339838</v>
+        <v>1.020166707844889</v>
       </c>
       <c r="M4">
-        <v>1.051937591323802</v>
+        <v>1.044359260141519</v>
       </c>
       <c r="N4">
-        <v>1.035197256848155</v>
+        <v>1.025623176806574</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029423692226647</v>
+        <v>1.006074320672861</v>
       </c>
       <c r="D5">
-        <v>1.038503765963702</v>
+        <v>1.027825247384011</v>
       </c>
       <c r="E5">
-        <v>1.02922265951806</v>
+        <v>1.011137741691376</v>
       </c>
       <c r="F5">
-        <v>1.049727459834295</v>
+        <v>1.035723121517856</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036032725668431</v>
+        <v>1.051058007527363</v>
       </c>
       <c r="J5">
-        <v>1.033889280833156</v>
+        <v>1.02487277438907</v>
       </c>
       <c r="K5">
-        <v>1.040929776257755</v>
+        <v>1.037382574766436</v>
       </c>
       <c r="L5">
-        <v>1.031671730900404</v>
+        <v>1.020882300492006</v>
       </c>
       <c r="M5">
-        <v>1.052126167782445</v>
+        <v>1.045194415964801</v>
       </c>
       <c r="N5">
-        <v>1.035357522200698</v>
+        <v>1.026328211283253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029467065595119</v>
+        <v>1.006272500939869</v>
       </c>
       <c r="D6">
-        <v>1.03853677035491</v>
+        <v>1.027974228970434</v>
       </c>
       <c r="E6">
-        <v>1.029259519831951</v>
+        <v>1.011296366028164</v>
       </c>
       <c r="F6">
-        <v>1.049767793236004</v>
+        <v>1.035900620942893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036041247548307</v>
+        <v>1.051114206867651</v>
       </c>
       <c r="J6">
-        <v>1.033916148432676</v>
+        <v>1.024990472533948</v>
       </c>
       <c r="K6">
-        <v>1.040954017808551</v>
+        <v>1.037493579121524</v>
       </c>
       <c r="L6">
-        <v>1.031699730645295</v>
+        <v>1.02100196751488</v>
       </c>
       <c r="M6">
-        <v>1.052157824930029</v>
+        <v>1.045334030020241</v>
       </c>
       <c r="N6">
-        <v>1.035384427955291</v>
+        <v>1.026446076572997</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029168850672603</v>
+        <v>1.004905168716762</v>
       </c>
       <c r="D7">
-        <v>1.038309821937463</v>
+        <v>1.026946367108133</v>
       </c>
       <c r="E7">
-        <v>1.029006117651323</v>
+        <v>1.010202432268251</v>
       </c>
       <c r="F7">
-        <v>1.049490472071527</v>
+        <v>1.034676147677474</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03598251271313</v>
+        <v>1.050725287355219</v>
       </c>
       <c r="J7">
-        <v>1.033731381423441</v>
+        <v>1.024178181564356</v>
       </c>
       <c r="K7">
-        <v>1.040787269957333</v>
+        <v>1.036727201190388</v>
       </c>
       <c r="L7">
-        <v>1.031507202509272</v>
+        <v>1.020176302227945</v>
       </c>
       <c r="M7">
-        <v>1.051940111470665</v>
+        <v>1.044370460748244</v>
       </c>
       <c r="N7">
-        <v>1.035199398555708</v>
+        <v>1.025632632057056</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027923078675807</v>
+        <v>0.9990717716366869</v>
       </c>
       <c r="D8">
-        <v>1.037361125114477</v>
+        <v>1.022562336801753</v>
       </c>
       <c r="E8">
-        <v>1.027948349727456</v>
+        <v>1.005547952957338</v>
       </c>
       <c r="F8">
-        <v>1.048331796690489</v>
+        <v>1.029456965365185</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035733607988922</v>
+        <v>1.049036791529878</v>
       </c>
       <c r="J8">
-        <v>1.032958585965439</v>
+        <v>1.020706934131061</v>
       </c>
       <c r="K8">
-        <v>1.040088844598032</v>
+        <v>1.033445119535753</v>
       </c>
       <c r="L8">
-        <v>1.030702558131276</v>
+        <v>1.016653294491641</v>
       </c>
       <c r="M8">
-        <v>1.051029293350873</v>
+        <v>1.040252175950837</v>
       </c>
       <c r="N8">
-        <v>1.034425505639516</v>
+        <v>1.022156455054249</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025730636079627</v>
+        <v>0.9883122301733337</v>
       </c>
       <c r="D9">
-        <v>1.03568915746836</v>
+        <v>1.014484565290948</v>
       </c>
       <c r="E9">
-        <v>1.026089837731969</v>
+        <v>0.9970142147681942</v>
       </c>
       <c r="F9">
-        <v>1.046291977983634</v>
+        <v>1.019852522918506</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035282226221023</v>
+        <v>1.045813747431623</v>
       </c>
       <c r="J9">
-        <v>1.031595002958767</v>
+        <v>1.014284573706951</v>
       </c>
       <c r="K9">
-        <v>1.038852749587892</v>
+        <v>1.027346931773259</v>
       </c>
       <c r="L9">
-        <v>1.029285086295785</v>
+        <v>1.010155920717169</v>
       </c>
       <c r="M9">
-        <v>1.049421343521029</v>
+        <v>1.03263151369366</v>
       </c>
       <c r="N9">
-        <v>1.033059986188569</v>
+        <v>1.015724974141682</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024270921737622</v>
+        <v>0.9807806516416593</v>
       </c>
       <c r="D10">
-        <v>1.03457443359874</v>
+        <v>1.008840176798236</v>
       </c>
       <c r="E10">
-        <v>1.024854546031448</v>
+        <v>0.9910787366515798</v>
       </c>
       <c r="F10">
-        <v>1.044933474759635</v>
+        <v>1.013148583974555</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034972754085468</v>
+        <v>1.043487592931286</v>
       </c>
       <c r="J10">
-        <v>1.030684781854986</v>
+        <v>1.009778117968483</v>
       </c>
       <c r="K10">
-        <v>1.038025133298</v>
+        <v>1.023051632691704</v>
       </c>
       <c r="L10">
-        <v>1.028340444417391</v>
+        <v>1.005610957382384</v>
       </c>
       <c r="M10">
-        <v>1.048347455813991</v>
+        <v>1.027284426667276</v>
       </c>
       <c r="N10">
-        <v>1.032148472466417</v>
+        <v>1.011212118719168</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023639314108983</v>
+        <v>0.9774257176799203</v>
       </c>
       <c r="D11">
-        <v>1.034091744653854</v>
+        <v>1.006329260211533</v>
       </c>
       <c r="E11">
-        <v>1.024320548882736</v>
+        <v>0.9884446025908502</v>
       </c>
       <c r="F11">
-        <v>1.044345572414097</v>
+        <v>1.010167812523684</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034836729579663</v>
+        <v>1.042435601611142</v>
       </c>
       <c r="J11">
-        <v>1.030290381273719</v>
+        <v>1.007768730681803</v>
       </c>
       <c r="K11">
-        <v>1.037665936875202</v>
+        <v>1.021132794945189</v>
       </c>
       <c r="L11">
-        <v>1.027931497082066</v>
+        <v>1.003587777222124</v>
       </c>
       <c r="M11">
-        <v>1.047882010788797</v>
+        <v>1.024900492852319</v>
       </c>
       <c r="N11">
-        <v>1.031753511791086</v>
+        <v>1.00919987787206</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023404776576478</v>
+        <v>0.9761646708941663</v>
       </c>
       <c r="D12">
-        <v>1.033912452937113</v>
+        <v>1.005386057610475</v>
       </c>
       <c r="E12">
-        <v>1.024122333916378</v>
+        <v>0.9874560352242862</v>
       </c>
       <c r="F12">
-        <v>1.044127251588689</v>
+        <v>1.009048317381088</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034785901027688</v>
+        <v>1.042037877590418</v>
       </c>
       <c r="J12">
-        <v>1.030143843851116</v>
+        <v>1.007013198796725</v>
       </c>
       <c r="K12">
-        <v>1.03753239119247</v>
+        <v>1.020410791654666</v>
       </c>
       <c r="L12">
-        <v>1.027779610157541</v>
+        <v>1.002827569392017</v>
       </c>
       <c r="M12">
-        <v>1.047709058226258</v>
+        <v>1.024004195048424</v>
       </c>
       <c r="N12">
-        <v>1.031606766268535</v>
+        <v>1.008443273045045</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023455082507987</v>
+        <v>0.9764358562418304</v>
       </c>
       <c r="D13">
-        <v>1.03395091157665</v>
+        <v>1.005588862823951</v>
       </c>
       <c r="E13">
-        <v>1.024164845553898</v>
+        <v>0.9876685534184277</v>
       </c>
       <c r="F13">
-        <v>1.044174079758151</v>
+        <v>1.009289019700111</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034796817625453</v>
+        <v>1.042123510151466</v>
       </c>
       <c r="J13">
-        <v>1.030175278398034</v>
+        <v>1.007175684559749</v>
       </c>
       <c r="K13">
-        <v>1.037561042795806</v>
+        <v>1.020566089737552</v>
       </c>
       <c r="L13">
-        <v>1.027812189754559</v>
+        <v>1.002991037671358</v>
       </c>
       <c r="M13">
-        <v>1.047746160084809</v>
+        <v>1.024196950881094</v>
       </c>
       <c r="N13">
-        <v>1.031638245456115</v>
+        <v>1.00860598955649</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023619925737604</v>
+        <v>0.9773217874077494</v>
       </c>
       <c r="D14">
-        <v>1.034076924327531</v>
+        <v>1.006251512689341</v>
       </c>
       <c r="E14">
-        <v>1.024304161603207</v>
+        <v>0.9883630970940759</v>
       </c>
       <c r="F14">
-        <v>1.044327524871803</v>
+        <v>1.01007552929726</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034832534252978</v>
+        <v>1.042402869229073</v>
       </c>
       <c r="J14">
-        <v>1.030278269244937</v>
+        <v>1.007706467568812</v>
       </c>
       <c r="K14">
-        <v>1.03765490047386</v>
+        <v>1.021073305304952</v>
       </c>
       <c r="L14">
-        <v>1.027918941763645</v>
+        <v>1.003525118380132</v>
       </c>
       <c r="M14">
-        <v>1.047867715806228</v>
+        <v>1.024826627841513</v>
       </c>
       <c r="N14">
-        <v>1.031741382561834</v>
+        <v>1.009137526338307</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023721500347082</v>
+        <v>0.9778656429939016</v>
       </c>
       <c r="D15">
-        <v>1.034154565042806</v>
+        <v>1.006658381703676</v>
       </c>
       <c r="E15">
-        <v>1.024390016793088</v>
+        <v>0.9887896697795497</v>
       </c>
       <c r="F15">
-        <v>1.04442207444106</v>
+        <v>1.010558474889905</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03485450031553</v>
+        <v>1.042574060708251</v>
       </c>
       <c r="J15">
-        <v>1.030341720099557</v>
+        <v>1.008032273788595</v>
       </c>
       <c r="K15">
-        <v>1.037712712868161</v>
+        <v>1.02138457770796</v>
       </c>
       <c r="L15">
-        <v>1.027984717127024</v>
+        <v>1.003853016153553</v>
       </c>
       <c r="M15">
-        <v>1.047942601648049</v>
+        <v>1.025213146428875</v>
       </c>
       <c r="N15">
-        <v>1.031804923523946</v>
+        <v>1.009463795240293</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024312849180745</v>
+        <v>0.9810012665250256</v>
       </c>
       <c r="D16">
-        <v>1.034606468062034</v>
+        <v>1.009005368209982</v>
       </c>
       <c r="E16">
-        <v>1.024890004573768</v>
+        <v>0.9912521633945666</v>
       </c>
       <c r="F16">
-        <v>1.044972499155869</v>
+        <v>1.013344716186386</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034981739058093</v>
+        <v>1.04355644681075</v>
       </c>
       <c r="J16">
-        <v>1.030710951335734</v>
+        <v>1.009910214817935</v>
       </c>
       <c r="K16">
-        <v>1.038048954516712</v>
+        <v>1.023177703732024</v>
       </c>
       <c r="L16">
-        <v>1.028367586860331</v>
+        <v>1.005744031529394</v>
       </c>
       <c r="M16">
-        <v>1.048378336606439</v>
+        <v>1.02744115383475</v>
       </c>
       <c r="N16">
-        <v>1.032174679110829</v>
+        <v>1.011344403161297</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024683909953545</v>
+        <v>0.9829425269261793</v>
       </c>
       <c r="D17">
-        <v>1.034889934210781</v>
+        <v>1.010459333990751</v>
       </c>
       <c r="E17">
-        <v>1.025203873508281</v>
+        <v>0.9927793260834916</v>
       </c>
       <c r="F17">
-        <v>1.045317857674197</v>
+        <v>1.015071180851855</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035061011927406</v>
+        <v>1.044160523330593</v>
       </c>
       <c r="J17">
-        <v>1.030942488998566</v>
+        <v>1.011072356454724</v>
       </c>
       <c r="K17">
-        <v>1.038259647698994</v>
+        <v>1.024286425291963</v>
       </c>
       <c r="L17">
-        <v>1.028607775402801</v>
+        <v>1.006915155556466</v>
       </c>
       <c r="M17">
-        <v>1.048651543484672</v>
+        <v>1.028820019051287</v>
       </c>
       <c r="N17">
-        <v>1.0324065455837</v>
+        <v>1.01250819517251</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024900387590967</v>
+        <v>0.9840658462229298</v>
       </c>
       <c r="D18">
-        <v>1.03505527453395</v>
+        <v>1.011300991602907</v>
       </c>
       <c r="E18">
-        <v>1.025387033956001</v>
+        <v>0.9936639523921909</v>
       </c>
       <c r="F18">
-        <v>1.045519332021486</v>
+        <v>1.016070722569835</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035107055407941</v>
+        <v>1.044508570490165</v>
       </c>
       <c r="J18">
-        <v>1.031077515000649</v>
+        <v>1.011744642623652</v>
       </c>
       <c r="K18">
-        <v>1.038382461016081</v>
+        <v>1.024927465330211</v>
       </c>
       <c r="L18">
-        <v>1.028747881821447</v>
+        <v>1.007592957948368</v>
       </c>
       <c r="M18">
-        <v>1.048810857458184</v>
+        <v>1.029617702814208</v>
       </c>
       <c r="N18">
-        <v>1.032541763338194</v>
+        <v>1.01318143606491</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024974208337931</v>
+        <v>0.9844473683049231</v>
       </c>
       <c r="D19">
-        <v>1.03511165115323</v>
+        <v>1.01158690121759</v>
       </c>
       <c r="E19">
-        <v>1.025449501484576</v>
+        <v>0.9939645603391679</v>
       </c>
       <c r="F19">
-        <v>1.045588035047814</v>
+        <v>1.016410289898811</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035122721942675</v>
+        <v>1.044626523287856</v>
       </c>
       <c r="J19">
-        <v>1.031123550940514</v>
+        <v>1.011972942486136</v>
       </c>
       <c r="K19">
-        <v>1.038424323506161</v>
+        <v>1.025145095507503</v>
       </c>
       <c r="L19">
-        <v>1.028795655902417</v>
+        <v>1.007823185256241</v>
       </c>
       <c r="M19">
-        <v>1.048865172078984</v>
+        <v>1.029888589797677</v>
       </c>
       <c r="N19">
-        <v>1.032587864654374</v>
+        <v>1.013410060139386</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024644094070074</v>
+        <v>0.9827351829950941</v>
       </c>
       <c r="D20">
-        <v>1.034859521036664</v>
+        <v>1.010304004310032</v>
       </c>
       <c r="E20">
-        <v>1.025170189436416</v>
+        <v>0.9926161148541447</v>
       </c>
       <c r="F20">
-        <v>1.045280800594777</v>
+        <v>1.014886724988328</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035052526868297</v>
+        <v>1.044096158164831</v>
       </c>
       <c r="J20">
-        <v>1.030917649881264</v>
+        <v>1.010948248962693</v>
       </c>
       <c r="K20">
-        <v>1.038237050628534</v>
+        <v>1.024168058089356</v>
       </c>
       <c r="L20">
-        <v>1.028582004558455</v>
+        <v>1.00679005559249</v>
       </c>
       <c r="M20">
-        <v>1.04862223540852</v>
+        <v>1.028672764420604</v>
       </c>
       <c r="N20">
-        <v>1.032381671192003</v>
+        <v>1.012383911433605</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023571381585562</v>
+        <v>0.9770613200612487</v>
       </c>
       <c r="D21">
-        <v>1.034039816689776</v>
+        <v>1.006056673791285</v>
       </c>
       <c r="E21">
-        <v>1.02426313275234</v>
+        <v>0.9881588552955025</v>
       </c>
       <c r="F21">
-        <v>1.044282337655694</v>
+        <v>1.009844266470889</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034822024955354</v>
+        <v>1.042320799330919</v>
       </c>
       <c r="J21">
-        <v>1.030247942090262</v>
+        <v>1.007550421579454</v>
       </c>
       <c r="K21">
-        <v>1.037627265145602</v>
+        <v>1.020924202024756</v>
       </c>
       <c r="L21">
-        <v>1.027887505554428</v>
+        <v>1.003368088828827</v>
       </c>
       <c r="M21">
-        <v>1.047831922475748</v>
+        <v>1.024641505876517</v>
       </c>
       <c r="N21">
-        <v>1.031711012339121</v>
+        <v>1.008981258745746</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02289732812061</v>
+        <v>0.973407438690672</v>
       </c>
       <c r="D22">
-        <v>1.033524439307741</v>
+        <v>1.003324980026935</v>
       </c>
       <c r="E22">
-        <v>1.023693613950015</v>
+        <v>0.9852974949566259</v>
       </c>
       <c r="F22">
-        <v>1.043654867567047</v>
+        <v>1.0066023602594</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034675346540566</v>
+        <v>1.041164114734593</v>
       </c>
       <c r="J22">
-        <v>1.02982664221348</v>
+        <v>1.005360862176151</v>
       </c>
       <c r="K22">
-        <v>1.037243151091368</v>
+        <v>1.018830854935394</v>
       </c>
       <c r="L22">
-        <v>1.027450929824206</v>
+        <v>1.001165948353871</v>
       </c>
       <c r="M22">
-        <v>1.047334642687411</v>
+        <v>1.022044148034293</v>
       </c>
       <c r="N22">
-        <v>1.03128911416819</v>
+        <v>1.006788589916944</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023254618103715</v>
+        <v>0.9753529103930619</v>
       </c>
       <c r="D23">
-        <v>1.033797649841467</v>
+        <v>1.004779079330608</v>
       </c>
       <c r="E23">
-        <v>1.023995451923141</v>
+        <v>0.9868201200486282</v>
       </c>
       <c r="F23">
-        <v>1.043987472119828</v>
+        <v>1.008327944759665</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034753269466504</v>
+        <v>1.041781215028138</v>
       </c>
       <c r="J23">
-        <v>1.030050002560685</v>
+        <v>1.006526785323222</v>
       </c>
       <c r="K23">
-        <v>1.037446844908666</v>
+        <v>1.01994582094615</v>
       </c>
       <c r="L23">
-        <v>1.027682358651582</v>
+        <v>1.002338289686974</v>
       </c>
       <c r="M23">
-        <v>1.047598295595509</v>
+        <v>1.023427176921407</v>
       </c>
       <c r="N23">
-        <v>1.031512791712708</v>
+        <v>1.007956168808617</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024662085017513</v>
+        <v>0.9828289005009153</v>
       </c>
       <c r="D24">
-        <v>1.034873263443172</v>
+        <v>1.010374210898541</v>
       </c>
       <c r="E24">
-        <v>1.025185409552949</v>
+        <v>0.9926898819264439</v>
       </c>
       <c r="F24">
-        <v>1.045297544993359</v>
+        <v>1.014970095712797</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035056361503967</v>
+        <v>1.044125255284497</v>
       </c>
       <c r="J24">
-        <v>1.030928873689584</v>
+        <v>1.011004344981973</v>
       </c>
       <c r="K24">
-        <v>1.038247261520656</v>
+        <v>1.024221560590092</v>
       </c>
       <c r="L24">
-        <v>1.028593649267523</v>
+        <v>1.006846599212394</v>
       </c>
       <c r="M24">
-        <v>1.04863547859947</v>
+        <v>1.028739322763676</v>
       </c>
       <c r="N24">
-        <v>1.032392910939418</v>
+        <v>1.012440087115666</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026297101619945</v>
+        <v>0.9911542740041576</v>
       </c>
       <c r="D25">
-        <v>1.036121421221948</v>
+        <v>1.016616839127814</v>
       </c>
       <c r="E25">
-        <v>1.026569658363611</v>
+        <v>0.9992620216123336</v>
       </c>
       <c r="F25">
-        <v>1.046819083935006</v>
+        <v>1.022386471991098</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035400429418843</v>
+        <v>1.046677415099543</v>
       </c>
       <c r="J25">
-        <v>1.031947731490103</v>
+        <v>1.015983043811876</v>
       </c>
       <c r="K25">
-        <v>1.03917294071252</v>
+        <v>1.028962562487237</v>
       </c>
       <c r="L25">
-        <v>1.029651481368691</v>
+        <v>1.011871804557204</v>
       </c>
       <c r="M25">
-        <v>1.049837381331749</v>
+        <v>1.03464692947754</v>
       </c>
       <c r="N25">
-        <v>1.033413215634878</v>
+        <v>1.017425856268972</v>
       </c>
     </row>
   </sheetData>
